--- a/artfynd/A 19823-2019.xlsx
+++ b/artfynd/A 19823-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>70820938</v>
+        <v>71051600</v>
       </c>
       <c r="B2" t="n">
-        <v>73631</v>
+        <v>57575</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,39 +696,46 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6426</v>
+        <v>208250</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Rana arvalis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>Nilsson, 1842</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>äggklumpar</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Björnaslätten, Vg</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>344541.8438177248</v>
+        <v>344449.9546635574</v>
       </c>
       <c r="R2" t="n">
-        <v>6398200.355908441</v>
+        <v>6398235.993077958</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -752,7 +759,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2018-04-12</t>
+          <t>2018-04-29</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -762,7 +769,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2018-04-12</t>
+          <t>2018-04-29</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -779,42 +786,22 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>sumpskog</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Johan Svedholm</t>
+          <t>Erik Börjesson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Johan Svedholm, Erik Börjesson</t>
+          <t>Erik Börjesson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>71051600</v>
+        <v>71051594</v>
       </c>
       <c r="B3" t="n">
         <v>57575</v>
@@ -849,7 +836,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -857,19 +844,24 @@
           <t>äggklumpar</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Björnaslätten, Vg</t>
+          <t>björnaslätten, Vg</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>344449.9546635574</v>
+        <v>344521.073740882</v>
       </c>
       <c r="R3" t="n">
-        <v>6398235.993077958</v>
+        <v>6398217.73954579</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -893,7 +885,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2018-04-29</t>
+          <t>2018-04-16</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -903,7 +895,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2018-04-29</t>
+          <t>2018-04-16</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -935,10 +927,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>71051594</v>
+        <v>71051599</v>
       </c>
       <c r="B4" t="n">
-        <v>57575</v>
+        <v>57549</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -951,33 +943,24 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>208250</v>
+        <v>208245</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Rana arvalis</t>
+          <t>Bufo bufo</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Nilsson, 1842</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>äggklumpar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
           <t>spel/sång</t>
@@ -985,17 +968,17 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>björnaslätten, Vg</t>
+          <t>Björnaslätten, Vg</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>344521.073740882</v>
+        <v>344454.7714488956</v>
       </c>
       <c r="R4" t="n">
-        <v>6398217.73954579</v>
+        <v>6398221.898577491</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1019,7 +1002,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2018-04-16</t>
+          <t>2018-04-29</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1029,7 +1012,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2018-04-16</t>
+          <t>2018-04-29</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1061,10 +1044,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>71051599</v>
+        <v>70820938</v>
       </c>
       <c r="B5" t="n">
-        <v>57549</v>
+        <v>73631</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1077,42 +1060,39 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>208245</v>
+        <v>6426</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bufo bufo</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Björnaslätten, Vg</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>344454.7714488956</v>
+        <v>344541.8438177248</v>
       </c>
       <c r="R5" t="n">
-        <v>6398221.898577491</v>
+        <v>6398200.355908441</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1136,7 +1116,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2018-04-29</t>
+          <t>2018-04-12</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1146,7 +1126,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2018-04-29</t>
+          <t>2018-04-12</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1163,15 +1143,35 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>sumpskog</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Erik Börjesson</t>
+          <t>Johan Svedholm</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Erik Börjesson</t>
+          <t>Johan Svedholm, Erik Börjesson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>

--- a/artfynd/A 19823-2019.xlsx
+++ b/artfynd/A 19823-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>71051600</v>
+        <v>70820938</v>
       </c>
       <c r="B2" t="n">
-        <v>57575</v>
+        <v>73631</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,46 +696,39 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>208250</v>
+        <v>6426</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Rana arvalis</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nilsson, 1842</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>äggklumpar</t>
-        </is>
-      </c>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Björnaslätten, Vg</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>344449.9546635574</v>
+        <v>344541.8438177248</v>
       </c>
       <c r="R2" t="n">
-        <v>6398235.993077958</v>
+        <v>6398200.355908441</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -759,7 +752,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2018-04-29</t>
+          <t>2018-04-12</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -769,7 +762,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2018-04-29</t>
+          <t>2018-04-12</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -786,22 +779,42 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>sumpskog</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Erik Börjesson</t>
+          <t>Johan Svedholm</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Erik Börjesson</t>
+          <t>Johan Svedholm, Erik Börjesson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>71051594</v>
+        <v>71051600</v>
       </c>
       <c r="B3" t="n">
         <v>57575</v>
@@ -836,7 +849,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -844,24 +857,19 @@
           <t>äggklumpar</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>björnaslätten, Vg</t>
+          <t>Björnaslätten, Vg</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>344521.073740882</v>
+        <v>344449.9546635574</v>
       </c>
       <c r="R3" t="n">
-        <v>6398217.73954579</v>
+        <v>6398235.993077958</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -885,7 +893,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2018-04-16</t>
+          <t>2018-04-29</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -895,7 +903,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2018-04-16</t>
+          <t>2018-04-29</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -927,10 +935,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>71051599</v>
+        <v>71051594</v>
       </c>
       <c r="B4" t="n">
-        <v>57549</v>
+        <v>57575</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -943,24 +951,33 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>208245</v>
+        <v>208250</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bufo bufo</t>
+          <t>Rana arvalis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>Nilsson, 1842</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>äggklumpar</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>spel/sång</t>
@@ -968,17 +985,17 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Björnaslätten, Vg</t>
+          <t>björnaslätten, Vg</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>344454.7714488956</v>
+        <v>344521.073740882</v>
       </c>
       <c r="R4" t="n">
-        <v>6398221.898577491</v>
+        <v>6398217.73954579</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1002,7 +1019,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2018-04-29</t>
+          <t>2018-04-16</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1012,7 +1029,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2018-04-29</t>
+          <t>2018-04-16</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1044,10 +1061,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>70820938</v>
+        <v>71051599</v>
       </c>
       <c r="B5" t="n">
-        <v>73631</v>
+        <v>57549</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1060,39 +1077,42 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6426</v>
+        <v>208245</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Bufo bufo</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Björnaslätten, Vg</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>344541.8438177248</v>
+        <v>344454.7714488956</v>
       </c>
       <c r="R5" t="n">
-        <v>6398200.355908441</v>
+        <v>6398221.898577491</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1116,7 +1136,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2018-04-12</t>
+          <t>2018-04-29</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1126,7 +1146,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2018-04-12</t>
+          <t>2018-04-29</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1143,35 +1163,15 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>sumpskog</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Johan Svedholm</t>
+          <t>Erik Börjesson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Johan Svedholm, Erik Börjesson</t>
+          <t>Erik Börjesson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
